--- a/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
+++ b/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Jonathan Lavigne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Jonathan_Lavigne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,9 +113,6 @@
     <t>https://www.linkedin.com/in/jonathan-lavigne-51b57913b/?originalSubdomain=ca</t>
   </si>
   <si>
-    <t>Nathan Basiliko</t>
-  </si>
-  <si>
     <t>PhD Student, Laurentian University</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Vale Living with Lakes Centre (laurentian.ca)</t>
+  </si>
+  <si>
+    <t>Nathan Basiliko and Peter Beckett</t>
   </si>
 </sst>
 </file>
@@ -444,14 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -465,6 +457,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -734,7 +734,7 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -789,11 +789,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -807,33 +807,33 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>34</v>
+      <c r="B17" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="12">
         <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="C18" s="12">
         <v>2017</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="32"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -873,11 +873,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>40</v>
+      <c r="A25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,18 +907,18 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
+++ b/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
@@ -113,18 +113,6 @@
     <t>https://www.linkedin.com/in/jonathan-lavigne-51b57913b/?originalSubdomain=ca</t>
   </si>
   <si>
-    <t>PhD Student, Laurentian University</t>
-  </si>
-  <si>
-    <t>PhD Boreal Ecology</t>
-  </si>
-  <si>
-    <t>MSc Biology</t>
-  </si>
-  <si>
-    <t>BSc Environmental Science</t>
-  </si>
-  <si>
     <t>Laurentian University</t>
   </si>
   <si>
@@ -147,6 +135,18 @@
   </si>
   <si>
     <t>Nathan Basiliko and Peter Beckett</t>
+  </si>
+  <si>
+    <t>Ph.D. Boreal Ecology</t>
+  </si>
+  <si>
+    <t>M.Sc. Biology</t>
+  </si>
+  <si>
+    <t>B.Sc. Environmental Science</t>
+  </si>
+  <si>
+    <t>Ph.D. Student, Laurentian University</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -763,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,21 +808,21 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12">
         <v>2020</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12">
         <v>2017</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,17 +908,17 @@
     </row>
     <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
+++ b/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Jonathan_Lavigne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Jonathan_Lavigne/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C17C7A5E0BBC876C6F1A1F1EE99856F77F99F14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92CC414C-B5EA-4D7B-B38D-992DA8715754}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5880"/>
+    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -107,9 +108,6 @@
     <t>Jonathan Lavigne</t>
   </si>
   <si>
-    <t>jlavigne1@laurentian.ca</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/jonathan-lavigne-51b57913b/?originalSubdomain=ca</t>
   </si>
   <si>
@@ -137,9 +135,6 @@
     <t>Nathan Basiliko and Peter Beckett</t>
   </si>
   <si>
-    <t>Ph.D. Boreal Ecology</t>
-  </si>
-  <si>
     <t>M.Sc. Biology</t>
   </si>
   <si>
@@ -147,12 +142,21 @@
   </si>
   <si>
     <t>Ph.D. Student, Laurentian University</t>
+  </si>
+  <si>
+    <t>Ph.D. Forest Sciences</t>
+  </si>
+  <si>
+    <t>Lakehead University</t>
+  </si>
+  <si>
+    <t>Jonathan.Lavigne@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,19 +420,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -436,27 +440,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -680,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -709,7 +710,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -717,8 +718,8 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>40</v>
+      <c r="B4" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -734,8 +735,8 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>27</v>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -748,8 +749,8 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>28</v>
+      <c r="B8" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -759,11 +760,11 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>36</v>
+      <c r="B10" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,7 +774,7 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
@@ -789,11 +790,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -807,33 +808,33 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>29</v>
+      <c r="A17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="12">
         <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>29</v>
+      <c r="A18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="12">
         <v>2017</v>
@@ -851,10 +852,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -873,11 +874,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>35</v>
+      <c r="A25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,18 +908,18 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,12 +1898,21 @@
     <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B25" r:id="rId4" display="https://www3.laurentian.ca/livingwithlakes/"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B25" r:id="rId3" display="https://www3.laurentian.ca/livingwithlakes/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
+++ b/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Jonathan_Lavigne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_C17C7A5E0BBC876C6F1A1F1EE99856F77F99F14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92CC414C-B5EA-4D7B-B38D-992DA8715754}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_C17C7A5E0BBC876C6F1A1F1EE99856F77F99F14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A20ECE-57FD-4B35-A101-AAD526B7B0D7}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>B.Sc. Environmental Science</t>
   </si>
   <si>
-    <t>Ph.D. Student, Laurentian University</t>
-  </si>
-  <si>
     <t>Ph.D. Forest Sciences</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Jonathan.Lavigne@NRCan-RNCan.gc.ca</t>
+  </si>
+  <si>
+    <t>Ph.D. Student, Lakehead University</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,10 +809,10 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>29</v>

--- a/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
+++ b/website_content_creation/authors/Jonathan_Lavigne/Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Jonathan_Lavigne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C17C7A5E0BBC876C6F1A1F1EE99856F77F99F14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9A20ECE-57FD-4B35-A101-AAD526B7B0D7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_C17C7A5E0BBC876C6F1A1F1EE99856F77F99F14E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B02ED7B1-B6B2-4AF6-B1A9-9BB368A04F56}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Groups</t>
   </si>
   <si>
-    <t>Visiting and Co-supervised Students</t>
-  </si>
-  <si>
     <t>Academic Supervisor (for students)</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Laurentian University</t>
   </si>
   <si>
-    <t>2020-</t>
-  </si>
-  <si>
     <t>Living with Lakes Centre, Laurentian University</t>
   </si>
   <si>
@@ -150,7 +144,10 @@
     <t>Jonathan.Lavigne@NRCan-RNCan.gc.ca</t>
   </si>
   <si>
-    <t>Ph.D. Student, Lakehead University</t>
+    <t>Past WETlab Members</t>
+  </si>
+  <si>
+    <t>Biologist</t>
   </si>
 </sst>
 </file>
@@ -711,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -719,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -761,10 +758,10 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,21 +806,21 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="26">
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12">
         <v>2020</v>
@@ -831,10 +828,10 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12">
         <v>2017</v>
@@ -853,7 +850,7 @@
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="29"/>
     </row>
@@ -875,10 +872,10 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,17 +906,17 @@
     </row>
     <row r="33" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
